--- a/Riesgo de mercado/Tarea3.xlsx
+++ b/Riesgo de mercado/Tarea3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegolozoya/Documents/ITESO/Semestre 6/Administración de riesgos/Riesgo de mercado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF07511-9B0E-4C4F-B272-0D7D3FFC8D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5ED14D-F230-4044-A086-496A9AE33936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="760" windowWidth="28280" windowHeight="18360" xr2:uid="{BCAAAC6A-9B9E-9149-8896-BD85024276D7}"/>
+    <workbookView xWindow="1120" yWindow="760" windowWidth="28280" windowHeight="18360" activeTab="1" xr2:uid="{BCAAAC6A-9B9E-9149-8896-BD85024276D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 1" sheetId="4" r:id="rId1"/>
@@ -3065,7 +3065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD13F4D-ADFE-1C46-A3B7-24204D8A0031}">
   <dimension ref="B14:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -3418,7 +3418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83C15BC-6DAC-DA43-95EF-0049BEC99C22}">
   <dimension ref="B12:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
